--- a/Configs/Datas/SpawnData.xlsx
+++ b/Configs/Datas/SpawnData.xlsx
@@ -989,13 +989,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
@@ -1022,13 +1022,6 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
@@ -1048,13 +1041,10 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2"/>
-      <c r="L2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
@@ -1067,17 +1057,6 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
@@ -1092,6 +1071,20 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/SpawnData.xlsx
+++ b/Configs/Datas/SpawnData.xlsx
@@ -989,13 +989,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
@@ -1085,6 +1085,34 @@
         <v>5</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/SpawnData.xlsx
+++ b/Configs/Datas/SpawnData.xlsx
@@ -992,7 +992,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/Configs/Datas/SpawnData.xlsx
+++ b/Configs/Datas/SpawnData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="16810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,18 +992,18 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="9" width="10.625" customWidth="1"/>
+    <col min="7" max="9" width="10.6272727272727" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="11" max="11" width="22.7545454545455" customWidth="1"/>
+    <col min="12" max="12" width="21.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1107,10 +1107,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1132,7 +1132,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1149,7 +1149,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/SpawnData.xlsx
+++ b/Configs/Datas/SpawnData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16810" windowHeight="7230"/>
+    <workbookView windowWidth="24645" windowHeight="11115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,654 @@
   </si>
   <si>
     <t>##</t>
+  </si>
+  <si>
+    <t>预期x</t>
+  </si>
+  <si>
+    <t>预期y</t>
+  </si>
+  <si>
+    <t>玩家出生点</t>
+  </si>
+  <si>
+    <t>场景1-怪物1点位</t>
+  </si>
+  <si>
+    <t>预期点位</t>
+  </si>
+  <si>
+    <t>场景2-怪物1</t>
+  </si>
+  <si>
+    <t>配置参数</t>
+  </si>
+  <si>
+    <t>场景2-怪物2</t>
+  </si>
+  <si>
+    <t>填写比例</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景2-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神像</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>场景2-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓</t>
+    </r>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆1</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆2</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆3</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆4</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆5</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开门钥匙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景4-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神像</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景4-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火灵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火灵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景6-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景6-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开门钥匙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景6-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火灵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景7-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神像</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOSS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -68,7 +716,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +868,60 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -415,11 +1117,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -547,7 +1302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,34 +1314,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,11 +1426,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,6 +1510,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -989,24 +1773,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="9" width="10.6272727272727" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="22.7545454545455" customWidth="1"/>
-    <col min="12" max="12" width="21.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="5" width="6.375" customWidth="1"/>
+    <col min="6" max="6" width="17" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="5.375" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="5.375" customWidth="1"/>
+    <col min="12" max="12" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,10 +1807,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1041,26 +1825,27 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1073,47 +1858,1217 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8.7</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>-0.2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>0.85*G6+0.2</f>
+        <v>8.7</v>
+      </c>
+      <c r="J6">
+        <f>0.8*H6-0.2</f>
+        <v>-0.2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>19.75</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>-1.8</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I37" si="0">0.85*G7+0.2</f>
+        <v>19.75</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J37" si="1">0.8*H7-0.2</f>
+        <v>-1.8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>25.5</v>
+      </c>
+      <c r="M7">
+        <v>-2.55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
+        <v>21.45</v>
+      </c>
+      <c r="D8">
+        <v>-3.4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>-4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>21.45</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>-3.4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <f>L7/L6</f>
+        <v>0.85</v>
+      </c>
+      <c r="M8">
+        <f>M7/M6</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:10">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="C9" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-2.6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>25.7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21.45</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>21.45</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:10">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>23.15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>23.15</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6"/>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>5.4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6"/>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>4.6</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6"/>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>19.75</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>19.75</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6"/>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>18.9</v>
+      </c>
+      <c r="D15">
+        <v>12.6</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>18.9</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6"/>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>17.2</v>
+      </c>
+      <c r="D16">
+        <v>14.2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>17.2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6"/>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>26.55</v>
+      </c>
+      <c r="D17">
+        <v>14.2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>31</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>26.55</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:10">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>25.7</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>22.3</v>
+      </c>
+      <c r="D19">
+        <v>16.6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>22.3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>29.1</v>
+      </c>
+      <c r="D20">
+        <v>17.4</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>29.1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>26.55</v>
+      </c>
+      <c r="D21">
+        <v>19.8</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>25</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>26.55</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>30.8</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>35.9</v>
+      </c>
+      <c r="D23">
+        <v>8.6</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>35.9</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>46.1</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>46.1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>50.35</v>
+      </c>
+      <c r="D25">
+        <v>16.6</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25">
+        <v>59</v>
+      </c>
+      <c r="H25">
+        <v>21</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>50.35</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>14.2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <v>68</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>56.3</v>
+      </c>
+      <c r="D27">
+        <v>11.8</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27">
+        <v>66</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>56.3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>60.55</v>
+      </c>
+      <c r="D28">
+        <v>8.6</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28">
+        <v>71</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>60.55</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>55.45</v>
+      </c>
+      <c r="D29">
+        <v>8.6</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <v>65</v>
+      </c>
+      <c r="H29">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>55.45</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>52.9</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>62</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>52.9</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>58.85</v>
+      </c>
+      <c r="D31">
+        <v>-6.6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31">
+        <v>69</v>
+      </c>
+      <c r="H31">
+        <v>-8</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>58.85</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>61.4</v>
+      </c>
+      <c r="D32">
+        <v>-6.6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>72</v>
+      </c>
+      <c r="H32">
+        <v>-8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>61.4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <v>1.4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33">
+        <v>68</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>-5</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34">
+        <v>68</v>
+      </c>
+      <c r="H34">
+        <v>-6</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>59.7</v>
+      </c>
+      <c r="D35">
+        <v>-2.6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35">
+        <v>70</v>
+      </c>
+      <c r="H35">
+        <v>-3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>59.7</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>6.2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>88</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>96.25</v>
+      </c>
+      <c r="D37">
+        <v>10.2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37">
+        <v>113</v>
+      </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>96.25</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>85.2</v>
+      </c>
+      <c r="D38">
+        <v>1.4</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:I43" si="2">0.85*G38+0.2</f>
+        <v>85.2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J43" si="3">0.8*H38-0.2</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>92.85</v>
+      </c>
+      <c r="D39">
+        <v>17.4</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39">
+        <v>109</v>
+      </c>
+      <c r="H39">
+        <v>22</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>92.85</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>85.2</v>
+      </c>
+      <c r="D40">
+        <v>2.2</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>85.2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>92.85</v>
+      </c>
+      <c r="D41">
+        <v>16.6</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41">
+        <v>109</v>
+      </c>
+      <c r="H41">
+        <v>21</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>92.85</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>24.85</v>
+      </c>
+      <c r="D42">
+        <v>16.6</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42">
+        <v>29</v>
+      </c>
+      <c r="H42">
+        <v>21</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>24.85</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>58.85</v>
+      </c>
+      <c r="D43">
+        <v>5.4</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>69</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>58.85</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +3087,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1149,7 +3104,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/SpawnData.xlsx
+++ b/Configs/Datas/SpawnData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="11115"/>
+    <workbookView windowWidth="17490" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -86,6 +86,22 @@
   </si>
   <si>
     <r>
+      <t>场景2-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心石像</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -99,49 +115,602 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓</t>
+    </r>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆1</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆2</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆3</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆4</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆5</t>
+  </si>
+  <si>
+    <t>场景3-紫史莱姆6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开门钥匙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>场景4-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>神像</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>场景2-</t>
+      <t>爱心石像</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景4-</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火灵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火灵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>愤怒史莱姆4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景6-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景6-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开门钥匙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景6-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火灵</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>场景7-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心石像</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOSS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回血蘑菇2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="2" tint="-0.5"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>石碓1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景8-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石碓2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景3-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>石碓</t>
     </r>
   </si>
   <si>
-    <t>场景3-紫史莱姆1</t>
-  </si>
-  <si>
-    <t>场景3-紫史莱姆2</t>
-  </si>
-  <si>
-    <t>场景3-紫史莱姆3</t>
-  </si>
-  <si>
-    <t>场景3-紫史莱姆4</t>
-  </si>
-  <si>
-    <t>场景3-紫史莱姆5</t>
-  </si>
-  <si>
-    <t>场景3-紫史莱姆6</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -150,547 +719,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>场景3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>愤怒史莱姆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>愤怒史莱姆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>愤怒史莱姆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>愤怒史莱姆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景3-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="7" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回血蘑菇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景3-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开门钥匙</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景4-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>神像</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景4-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>火灵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景5-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="7" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回血蘑菇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景5-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>火灵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>愤怒史莱姆1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>愤怒史莱姆2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>愤怒史莱姆3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>愤怒史莱姆4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景6-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="7" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回血蘑菇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景6-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="6" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开门钥匙</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景6-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>火灵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景7-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>神像</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场景8-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BOSS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>场景8-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="7" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回血蘑菇1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>场景8-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="7" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回血蘑菇2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>场景8-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>石碓1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>场景8-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>石碓2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>场景3-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>石碓</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>场景5-</t>
     </r>
     <r>
@@ -716,7 +744,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,7 +899,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -903,6 +931,14 @@
       <b/>
       <sz val="11"/>
       <color theme="6" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1426,7 +1462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1439,16 +1475,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -1775,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1787,11 +1817,12 @@
     <col min="7" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="8" width="5.375" customWidth="1"/>
     <col min="9" max="9" width="6.375" customWidth="1"/>
-    <col min="10" max="11" width="5.375" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
     <col min="12" max="12" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1807,9 +1838,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1825,19 +1855,16 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>9</v>
       </c>
@@ -2009,7 +2036,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="1">
@@ -2028,7 +2055,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -2041,7 +2068,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1">
@@ -2060,7 +2087,7 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:10">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -2073,7 +2100,7 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="2">
@@ -2092,7 +2119,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12">
         <v>8</v>
       </c>
@@ -2124,7 +2151,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13">
         <v>9</v>
       </c>
@@ -2156,7 +2183,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14">
         <v>10</v>
       </c>
@@ -2188,7 +2215,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15">
         <v>11</v>
       </c>
@@ -2220,7 +2247,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
       <c r="B16">
         <v>12</v>
       </c>
@@ -2252,7 +2279,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
       <c r="B17">
         <v>13</v>
       </c>
@@ -2265,7 +2292,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G17">
@@ -2296,7 +2323,7 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G18">
@@ -2327,7 +2354,7 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1">
@@ -2358,7 +2385,7 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G20">
@@ -2389,7 +2416,7 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G21">
@@ -2420,7 +2447,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G22">
@@ -2451,7 +2478,7 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G23">
@@ -2482,7 +2509,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G24">
@@ -2513,7 +2540,7 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G25">
@@ -2544,7 +2571,7 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G26">
@@ -2575,7 +2602,7 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G27">
@@ -2606,7 +2633,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G28">
@@ -2637,7 +2664,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G29">
@@ -2668,7 +2695,7 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G30">
@@ -2699,7 +2726,7 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G31">
@@ -2730,7 +2757,7 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G32">
@@ -2761,7 +2788,7 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G33">
@@ -2792,7 +2819,7 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G34">
@@ -2823,7 +2850,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G35">
@@ -2854,7 +2881,7 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G36">
@@ -2885,7 +2912,7 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G37">
@@ -2913,7 +2940,7 @@
       <c r="D38">
         <v>1.4</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G38">
@@ -2941,7 +2968,7 @@
       <c r="D39">
         <v>17.4</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G39">
@@ -2969,7 +2996,7 @@
       <c r="D40">
         <v>2.2</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G40">
@@ -2997,7 +3024,7 @@
       <c r="D41">
         <v>16.6</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G41">
@@ -3025,7 +3052,7 @@
       <c r="D42">
         <v>16.6</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G42">
@@ -3053,7 +3080,7 @@
       <c r="D43">
         <v>5.4</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G43">

--- a/Configs/Datas/SpawnData.xlsx
+++ b/Configs/Datas/SpawnData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
   <si>
     <t>##var</t>
   </si>
@@ -2554,6 +2554,9 @@
   </si>
   <si>
     <t>场景2-5 铁门</t>
+  </si>
+  <si>
+    <t>临时岩浆</t>
   </si>
 </sst>
 </file>
@@ -3854,11 +3857,11 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F74" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6127,10 +6130,10 @@
         <v>77</v>
       </c>
       <c r="C81">
-        <v>122.5</v>
+        <v>121.5</v>
       </c>
       <c r="D81">
-        <v>56.35</v>
+        <v>57.35</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6718,10 +6721,10 @@
         <v>101</v>
       </c>
       <c r="C105">
-        <v>97.868</v>
+        <v>97.95</v>
       </c>
       <c r="D105">
-        <v>58.15</v>
+        <v>59.65</v>
       </c>
       <c r="E105" s="7">
         <v>0</v>
@@ -8001,7 +8004,25 @@
       <c r="H156" s="39"/>
       <c r="I156" s="7"/>
     </row>
-    <row r="157" spans="8:8">
+    <row r="157" spans="2:8">
+      <c r="B157">
+        <v>153</v>
+      </c>
+      <c r="C157">
+        <v>75.89</v>
+      </c>
+      <c r="D157">
+        <v>12.78</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" s="8">
+        <v>7</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="H157" s="39"/>
     </row>
   </sheetData>
